--- a/media/supported_onnx.xlsx
+++ b/media/supported_onnx.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Profiles\MobilintCI\Documents\Compiler_Suite_Guide\media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Manual\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C77D8A0-70EE-421F-9D55-3B08C6C86627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05462C7-5D33-4AF7-929D-D7ED26FD46ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
   </bookViews>
@@ -36,17 +36,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>API Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Comments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only group=1 or Depthwise Conv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -85,9 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#BatchNormalization;BatchNormalization&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,187 +114,176 @@
   </si>
   <si>
     <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Resize;Resize&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Upsample;Upsample&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Add;Add&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Sub;Sub&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Mul;Mul&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Div;Div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Concat;Concat&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Relu;Relu&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#PRelu;PRelu&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#LeakyRelu;LeakyRelu&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Sigmoid;Sigmoid&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Broadcast only for specific cases of constant addition:
+Adding scalar
+Adding channel-size vector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support broadcast same as Add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only constant multiplication
+Support broadcast same as Add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only constant division
+Support broadcast same as Add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only along channel axis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only scalar slope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Tanh;Tanh&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Softplus;Softplus&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#HardSwish;HardSwish&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Clip;Clip&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Exp;Exp&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Slice;Slice&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Reshape;Reshape&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Transpose;Transpose&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Squeeze;Squeeze&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Flatten;Flatten&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Tile;Tile&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Constant;Constant&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Shape;Shape&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#ConstantOfShape;ConstantOfShape&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Identity;Identity&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Pad;Pad&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only channel-wise slice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only channel-wise flatten and before fully connected layer or Conv w/ 1x1 kernel
+Only allowzero=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only for the following specific case:
+Transpose-Flatten-Linear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only when resulting tensor has 2D shape
+Squeeze along batch axis is unsupported</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only axis=1 and before fully connected layer or Conv w/ 1x1 kernel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batch-wise tile is unsupported</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Only for the following specific case:
 Only mode = "nearest" and coordinate_transformation_mode = "half_pixel" or "pytorch_half_pixel"
 Only mode = "linear" and coordinate_transformation_mode = "half_pixel" or "pytorch_half_pixel"
-Width scale and height scale are must be integers (＞=1)
 Attributes axes, antialias, keep_aspect_ratio_policy nearest_mode are not supported.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Upsample;Upsample&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Add;Add&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Sub;Sub&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Mul;Mul&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Div;Div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Concat;Concat&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Relu;Relu&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#PRelu;PRelu&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#LeakyRelu;LeakyRelu&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Sigmoid;Sigmoid&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Width scale and height scale are must be integers (＞=1)
-Only mode "nearest" and "linear"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Broadcast only for specific cases of constant addition:
-Adding scalar
-Adding channel-size vector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Support broadcast same as Add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only constant multiplication
-Support broadcast same as Add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only constant division
-Support broadcast same as Add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only along channel axis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only scalar slope</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Supported in ASIC
-Unsupported in FPGA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Tanh;Tanh&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Softplus;Softplus&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#HardSwish;HardSwish&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Clip;Clip&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Exp;Exp&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Slice;Slice&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Reshape;Reshape&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Transpose;Transpose&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Squeeze;Squeeze&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Flatten;Flatten&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Tile;Tile&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Constant;Constant&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Shape;Shape&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#ConstantOfShape;ConstantOfShape&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Identity;Identity&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Pad;Pad&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only channel-wise slice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only channel-wise flatten and before fully connected layer or Conv w/ 1x1 kernel
-Only allowzero=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only for the following specific case:
-Transpose-Flatten-Linear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only when resulting tensor has 2D shape
-Squeeze along batch axis is unsupported</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only axis=1 and before fully connected layer or Conv w/ 1x1 kernel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Batch-wise tile is unsupported</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only zero-padding</t>
+    <t>Only mode "nearest" and "linear"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -360,7 +342,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -376,7 +358,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -674,14 +656,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456629B3-8544-4598-9B44-E584E1332484}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="97.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.625" customWidth="1"/>
+    <col min="2" max="2" width="100.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -694,277 +676,256 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="198" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/media/supported_onnx.xlsx
+++ b/media/supported_onnx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Manual\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05462C7-5D33-4AF7-929D-D7ED26FD46ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDBBF02-B55D-4679-81C7-53BE81185086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
   <si>
     <t>API Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,240 +50,240 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#ConvTranspose;ConvTranspose&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#BatchNormalization;BatchNormalization&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Gemm;Gemm&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#MatMul;MatMul&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#MaxPool;MaxPool&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#AveragePool;AveragePool&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#ReduceMean;ReduceMean&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#ReduceMax;ReduceMax&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#GlobalAveragePool;GlobalAveragePool&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Resize;Resize&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Upsample;Upsample&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Add;Add&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Sub;Sub&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Mul;Mul&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Div;Div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Concat;Concat&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Relu;Relu&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#PRelu;PRelu&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#LeakyRelu;LeakyRelu&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Sigmoid;Sigmoid&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Tanh;Tanh&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Softplus;Softplus&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#HardSwish;HardSwish&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Clip;Clip&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Exp;Exp&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Slice;Slice&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Reshape;Reshape&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Transpose;Transpose&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Squeeze;Squeeze&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Flatten;Flatten&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Tile;Tile&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Constant;Constant&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Shape;Shape&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#ConstantOfShape;ConstantOfShape&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Identity;Identity&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Pad;Pad&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Only for the following specific case:
-Input A is a flatten activation and input B is 2D tensor or vice-versa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only transA=0
+Input A is a flatten activation and input B is 2D tensor or vice-versa.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only transA=0.
 Only for the following specific case:
-Input A is a flatten activation and input B is 2D tensor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only training_mode=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only dilation=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only dilation=1, count_include_pad=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only along height and width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#ConvTranspose;ConvTranspose&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#BatchNormalization;BatchNormalization&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Gemm;Gemm&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#MatMul;MatMul&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#MaxPool;MaxPool&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#AveragePool;AveragePool&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#ReduceMean;ReduceMean&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#ReduceMax;ReduceMax&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#GlobalAveragePool;GlobalAveragePool&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Resize;Resize&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Upsample;Upsample&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Add;Add&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Sub;Sub&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Mul;Mul&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Div;Div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Concat;Concat&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Relu;Relu&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#PRelu;PRelu&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#LeakyRelu;LeakyRelu&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Sigmoid;Sigmoid&gt;</t>
+Input A is a flatten activation and input B is 2D tensor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only training_mode=0.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only dilation=1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only dilation=1, count_include_pad=1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only along height and width.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only for the following specific case:
+Only mode = "nearest" and coordinate_transformation_mode = "half_pixel" or "pytorch_half_pixel",
+Only mode = "linear" and coordinate_transformation_mode = "half_pixel" or "pytorch_half_pixel",
+Attributes axes, antialias, keep_aspect_ratio_policy nearest_mode are not supported.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only mode "nearest" and "linear".</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Broadcast only for specific cases of constant addition:
-Adding scalar
-Adding channel-size vector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Support broadcast same as Add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only constant multiplication
-Support broadcast same as Add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only constant division
-Support broadcast same as Add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only along channel axis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only scalar slope</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Tanh;Tanh&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Softplus;Softplus&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#HardSwish;HardSwish&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Clip;Clip&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Exp;Exp&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Slice;Slice&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Reshape;Reshape&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Transpose;Transpose&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Squeeze;Squeeze&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Flatten;Flatten&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Tile;Tile&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Constant;Constant&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Shape;Shape&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#ConstantOfShape;ConstantOfShape&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Identity;Identity&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Pad;Pad&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only channel-wise slice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only channel-wise flatten and before fully connected layer or Conv w/ 1x1 kernel
-Only allowzero=0</t>
+Adding scalar,
+Adding channel-size vector.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support broadcast same as Add.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only constant multiplication.
+Support broadcast same as Add.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only constant division.
+Support broadcast same as Add.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only along channel axis.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only scalar slope.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only channel-wise slice.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only channel-wise flatten and before fully connected layer or Conv w/ 1x1 kernel.
+Only allowzero=0.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Only for the following specific case:
-Transpose-Flatten-Linear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only when resulting tensor has 2D shape
-Squeeze along batch axis is unsupported</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only axis=1 and before fully connected layer or Conv w/ 1x1 kernel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Batch-wise tile is unsupported</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only for the following specific case:
-Only mode = "nearest" and coordinate_transformation_mode = "half_pixel" or "pytorch_half_pixel"
-Only mode = "linear" and coordinate_transformation_mode = "half_pixel" or "pytorch_half_pixel"
-Attributes axes, antialias, keep_aspect_ratio_policy nearest_mode are not supported.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only mode "nearest" and "linear"</t>
+Transpose-Flatten-Linear.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only when resulting tensor has 2D shape.
+Squeeze along batch axis is unsupported.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only axis=1 and before fully connected layer or Conv w/ 1x1 kernel.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batch-wise tile is unsupported.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456629B3-8544-4598-9B44-E584E1332484}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -681,251 +681,251 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/media/supported_onnx.xlsx
+++ b/media/supported_onnx.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Manual\media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinman\Desktop\workspace\Manual\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDBBF02-B55D-4679-81C7-53BE81185086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631B2DF8-E300-4F80-977A-3ABD07ABEB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$76</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="98">
   <si>
     <t>API Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,6 +287,162 @@
   </si>
   <si>
     <t>Batch-wise tile is unsupported.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Cast;Cast&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constant, reflect, edge modes are supported</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#ReduceMin;ReduceMin&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#ReduceProd;ReduceProd&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#ReduceSum;ReduceSum&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Elu;Elu&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Softmax;Softmax&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Pow;Pow&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Min;Min&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Max;Max&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#DepthToSpace;DepthToSpace&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Unsqueeze;Unsqueeze&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#ArgMax;ArgMax&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Loop;Loop&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Split;Split&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#InstanceNormalization;InstanceNormalization&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#LayerNormalization;LayerNormalization&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#ScatterND;ScatterND&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#NonMaxSuppression;NonMaxSuppression&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Range;Range&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Mod;Mod&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#TopK;TopK&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Gather;Gather&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#GatherND;GatherND&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Sqrt;Sqrt&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Reciprocal;Reciprocal&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Floor;Floor&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Ceil;Ceil&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Not;Not&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#NonZero;NonZero&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Erf;Erf&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#And;And&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Or;Or&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Xor;Xor&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Less;Less&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Equal;Equal&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Greater;Greater&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#Expand;Expand&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://github.com/onnx/onnx/blob/main/docs/Operators.md#HardSigmoid;HardSigmoid&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -334,15 +493,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -358,7 +517,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -654,281 +813,479 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456629B3-8544-4598-9B44-E584E1332484}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" customWidth="1"/>
+    <col min="1" max="1" width="50.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="14" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="15" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="38" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B39" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="40" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B53" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="54" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="55" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="60" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>38</v>
+    <row r="76" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B76" xr:uid="{456629B3-8544-4598-9B44-E584E1332484}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/media/supported_onnx.xlsx
+++ b/media/supported_onnx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinman\Desktop\workspace\Manual\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631B2DF8-E300-4F80-977A-3ABD07ABEB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC6B492-AE0D-4038-A818-B8D6A82F0ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
+    <workbookView xWindow="10620" yWindow="1800" windowWidth="17610" windowHeight="11295" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -815,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456629B3-8544-4598-9B44-E584E1332484}">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
